--- a/Diagrams/Gantt Chart.xlsx
+++ b/Diagrams/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryannguyen/Documents/SJSU/CMPE 195E/senior-project-195e/Diagrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549BC51A-0342-EB49-A998-302B7E5A99DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FF5E16-5D16-8240-BA67-45CBFD4695E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="1" xr2:uid="{84B47839-57C0-EE42-AA37-BC5EA0291CB5}"/>
   </bookViews>
@@ -613,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -630,12 +630,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -646,15 +640,8 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -677,13 +664,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -710,6 +691,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1078,284 +1077,284 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31" t="s">
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="9"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="39"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8" t="s">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8" t="s">
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8" t="s">
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8" t="s">
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8" t="s">
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8" t="s">
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8" t="s">
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="33"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="41"/>
     </row>
     <row r="3" spans="1:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="22">
         <f>DAY("August 21, 2022")</f>
         <v>21</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="22">
         <f>DAY(B3+7)</f>
         <v>28</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="22">
         <f t="shared" ref="D3:AP3" si="0">DAY(C3+7)</f>
         <v>4</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="22">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="22">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="22">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="22">
         <f>DAY(G3+8)</f>
         <v>2</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="22">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="L3" s="27">
+      <c r="L3" s="22">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="22">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="22">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="O3" s="27">
+      <c r="O3" s="22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="P3" s="27">
+      <c r="P3" s="22">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="Q3" s="27">
+      <c r="Q3" s="22">
         <f>DAY(P3+8)</f>
         <v>4</v>
       </c>
-      <c r="R3" s="27">
+      <c r="R3" s="22">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="S3" s="27">
+      <c r="S3" s="22">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="T3" s="27">
+      <c r="T3" s="22">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="U3" s="27">
+      <c r="U3" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V3" s="27">
+      <c r="V3" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="W3" s="27">
+      <c r="W3" s="22">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="X3" s="27">
+      <c r="X3" s="22">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="Y3" s="27">
+      <c r="Y3" s="22">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="Z3" s="27">
+      <c r="Z3" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AA3" s="27">
+      <c r="AA3" s="22">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="AB3" s="27">
+      <c r="AB3" s="22">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="AC3" s="27">
+      <c r="AC3" s="22">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AD3" s="27">
+      <c r="AD3" s="22">
         <f>DAY("March 5, 2022")</f>
         <v>5</v>
       </c>
-      <c r="AE3" s="27">
+      <c r="AE3" s="22">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="AF3" s="27">
+      <c r="AF3" s="22">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="AG3" s="27">
+      <c r="AG3" s="22">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AH3" s="27">
+      <c r="AH3" s="22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AI3" s="27">
+      <c r="AI3" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="AJ3" s="27">
+      <c r="AJ3" s="22">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="AK3" s="27">
+      <c r="AK3" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AL3" s="27">
+      <c r="AL3" s="22">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AM3" s="27">
+      <c r="AM3" s="22">
         <f>DAY(AL3+8)</f>
         <v>7</v>
       </c>
-      <c r="AN3" s="27">
+      <c r="AN3" s="22">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="AO3" s="27">
+      <c r="AO3" s="22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -1365,57 +1364,57 @@
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="44"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="37"/>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1457,12 +1456,12 @@
       <c r="AP5" s="5"/>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1503,15 +1502,15 @@
       <c r="AP6" s="5"/>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1549,7 +1548,7 @@
       <c r="AP7" s="5"/>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="3"/>
@@ -1558,8 +1557,8 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1595,7 +1594,7 @@
       <c r="AP8" s="5"/>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="3"/>
@@ -1604,8 +1603,8 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1641,7 +1640,7 @@
       <c r="AP9" s="5"/>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="3"/>
@@ -1652,9 +1651,9 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1687,7 +1686,7 @@
       <c r="AP10" s="5"/>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="3"/>
@@ -1701,8 +1700,8 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -1733,7 +1732,7 @@
       <c r="AP11" s="5"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="30" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="3"/>
@@ -1747,8 +1746,8 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -1779,7 +1778,7 @@
       <c r="AP12" s="5"/>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="30" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="3"/>
@@ -1794,8 +1793,8 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -1825,7 +1824,7 @@
       <c r="AP13" s="5"/>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="3"/>
@@ -1841,8 +1840,8 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -1871,7 +1870,7 @@
       <c r="AP14" s="5"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="3"/>
@@ -1887,8 +1886,8 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -1917,7 +1916,7 @@
       <c r="AP15" s="5"/>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="3"/>
@@ -1934,7 +1933,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="35"/>
+      <c r="P16" s="28"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -1963,53 +1962,53 @@
       <c r="AP16" s="5"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="40"/>
-      <c r="AG17" s="40"/>
-      <c r="AH17" s="40"/>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="40"/>
-      <c r="AK17" s="40"/>
-      <c r="AL17" s="40"/>
-      <c r="AM17" s="40"/>
-      <c r="AN17" s="40"/>
-      <c r="AO17" s="40"/>
-      <c r="AP17" s="41"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="33"/>
+      <c r="AH17" s="33"/>
+      <c r="AI17" s="33"/>
+      <c r="AJ17" s="33"/>
+      <c r="AK17" s="33"/>
+      <c r="AL17" s="33"/>
+      <c r="AM17" s="33"/>
+      <c r="AN17" s="33"/>
+      <c r="AO17" s="33"/>
+      <c r="AP17" s="34"/>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="30" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3"/>
@@ -2027,10 +2026,10 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
@@ -2055,7 +2054,7 @@
       <c r="AP18" s="5"/>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="3"/>
@@ -2073,11 +2072,11 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
@@ -2101,7 +2100,7 @@
       <c r="AP19" s="5"/>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="30" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="3"/>
@@ -2119,12 +2118,12 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
@@ -2147,7 +2146,7 @@
       <c r="AP20" s="5"/>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="3"/>
@@ -2165,12 +2164,12 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
@@ -2193,53 +2192,53 @@
       <c r="AP21" s="5"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="40"/>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="40"/>
-      <c r="AG22" s="40"/>
-      <c r="AH22" s="40"/>
-      <c r="AI22" s="40"/>
-      <c r="AJ22" s="40"/>
-      <c r="AK22" s="40"/>
-      <c r="AL22" s="40"/>
-      <c r="AM22" s="40"/>
-      <c r="AN22" s="40"/>
-      <c r="AO22" s="40"/>
-      <c r="AP22" s="41"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="33"/>
+      <c r="AG22" s="33"/>
+      <c r="AH22" s="33"/>
+      <c r="AI22" s="33"/>
+      <c r="AJ22" s="33"/>
+      <c r="AK22" s="33"/>
+      <c r="AL22" s="33"/>
+      <c r="AM22" s="33"/>
+      <c r="AN22" s="33"/>
+      <c r="AO22" s="33"/>
+      <c r="AP22" s="34"/>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="3"/>
@@ -2263,10 +2262,10 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
@@ -2285,7 +2284,7 @@
       <c r="AP23" s="5"/>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="30" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="3"/>
@@ -2309,14 +2308,14 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="19"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
@@ -2331,7 +2330,7 @@
       <c r="AP24" s="5"/>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="30" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="3"/>
@@ -2355,14 +2354,14 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
@@ -2377,7 +2376,7 @@
       <c r="AP25" s="5"/>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="30" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="3"/>
@@ -2409,8 +2408,8 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
-      <c r="AE26" s="19"/>
-      <c r="AF26" s="19"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
@@ -2423,7 +2422,7 @@
       <c r="AP26" s="5"/>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="30" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="3"/>
@@ -2457,11 +2456,11 @@
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="19"/>
-      <c r="AJ27" s="19"/>
-      <c r="AK27" s="19"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+      <c r="AK27" s="14"/>
       <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
@@ -2469,7 +2468,7 @@
       <c r="AP27" s="5"/>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="30" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="3"/>
@@ -2503,11 +2502,11 @@
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="19"/>
-      <c r="AJ28" s="19"/>
-      <c r="AK28" s="19"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="14"/>
+      <c r="AK28" s="14"/>
       <c r="AL28" s="3"/>
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
@@ -2515,7 +2514,7 @@
       <c r="AP28" s="5"/>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="30" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="3"/>
@@ -2549,11 +2548,11 @@
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="19"/>
-      <c r="AI29" s="19"/>
-      <c r="AJ29" s="19"/>
-      <c r="AK29" s="19"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="14"/>
+      <c r="AI29" s="14"/>
+      <c r="AJ29" s="14"/>
+      <c r="AK29" s="14"/>
       <c r="AL29" s="3"/>
       <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
@@ -2561,7 +2560,7 @@
       <c r="AP29" s="5"/>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="3"/>
@@ -2600,57 +2599,57 @@
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
-      <c r="AL30" s="19"/>
-      <c r="AM30" s="19"/>
-      <c r="AN30" s="19"/>
+      <c r="AL30" s="14"/>
+      <c r="AM30" s="14"/>
+      <c r="AN30" s="14"/>
       <c r="AO30" s="3"/>
       <c r="AP30" s="5"/>
     </row>
     <row r="31" spans="1:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="27"/>
-      <c r="AE31" s="27"/>
-      <c r="AF31" s="27"/>
-      <c r="AG31" s="27"/>
-      <c r="AH31" s="27"/>
-      <c r="AI31" s="27"/>
-      <c r="AJ31" s="27"/>
-      <c r="AK31" s="27"/>
-      <c r="AL31" s="28"/>
-      <c r="AM31" s="28"/>
-      <c r="AN31" s="28"/>
-      <c r="AO31" s="28"/>
-      <c r="AP31" s="29"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="22"/>
+      <c r="AI31" s="22"/>
+      <c r="AJ31" s="22"/>
+      <c r="AK31" s="22"/>
+      <c r="AL31" s="23"/>
+      <c r="AM31" s="23"/>
+      <c r="AN31" s="23"/>
+      <c r="AO31" s="23"/>
+      <c r="AP31" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2685,7 +2684,7 @@
   <dimension ref="A1:AN25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="AH16" sqref="AH16"/>
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2713,144 +2712,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="9"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8" t="s">
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8" t="s">
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="33"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="41"/>
     </row>
     <row r="3" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="22">
         <f>DAY("January 15, 2023")</f>
         <v>15</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="22">
         <f t="shared" ref="C3:U3" si="0">DAY(B3+7)</f>
         <v>22</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="22">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="22">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="22">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="22">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="22">
         <f>DAY("March 5, 2022")</f>
         <v>5</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="22">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="22">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="L3" s="27">
+      <c r="L3" s="22">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="O3" s="27">
+      <c r="O3" s="22">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="P3" s="27">
+      <c r="P3" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="Q3" s="27">
+      <c r="Q3" s="22">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="R3" s="27">
+      <c r="R3" s="22">
         <f>DAY(Q3+8)</f>
         <v>7</v>
       </c>
-      <c r="S3" s="27">
+      <c r="S3" s="22">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="T3" s="27">
+      <c r="T3" s="22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -2860,29 +2859,29 @@
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="47"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="46"/>
       <c r="V4"/>
       <c r="W4"/>
       <c r="X4"/>
@@ -2904,29 +2903,29 @@
       <c r="AN4"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="21"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="16"/>
       <c r="V5"/>
       <c r="W5"/>
       <c r="X5"/>
@@ -2948,29 +2947,29 @@
       <c r="AN5"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="21"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="16"/>
       <c r="V6"/>
       <c r="W6"/>
       <c r="X6"/>
@@ -2992,29 +2991,29 @@
       <c r="AN6"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="21"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="16"/>
       <c r="V7"/>
       <c r="W7"/>
       <c r="X7"/>
@@ -3036,29 +3035,29 @@
       <c r="AN7"/>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="21"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="16"/>
       <c r="V8"/>
       <c r="W8"/>
       <c r="X8"/>
@@ -3080,29 +3079,29 @@
       <c r="AN8"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="21"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="16"/>
       <c r="V9"/>
       <c r="W9"/>
       <c r="X9"/>
@@ -3124,29 +3123,29 @@
       <c r="AN9"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="21"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="16"/>
       <c r="V10"/>
       <c r="W10"/>
       <c r="X10"/>
@@ -3168,29 +3167,29 @@
       <c r="AN10"/>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="21"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="16"/>
       <c r="V11"/>
       <c r="W11"/>
       <c r="X11"/>
@@ -3212,29 +3211,29 @@
       <c r="AN11"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="21"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="16"/>
       <c r="V12"/>
       <c r="W12"/>
       <c r="X12"/>
@@ -3256,29 +3255,29 @@
       <c r="AN12"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="21"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="16"/>
       <c r="V13"/>
       <c r="W13"/>
       <c r="X13"/>
@@ -3300,141 +3299,141 @@
       <c r="AN13"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="21"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="16"/>
       <c r="V14"/>
       <c r="W14"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="21"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="16"/>
       <c r="V15"/>
       <c r="W15"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="21"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="16"/>
       <c r="V16"/>
       <c r="W16"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="21"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="16"/>
       <c r="V17"/>
       <c r="W17"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="21"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="16"/>
       <c r="V18"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="3"/>
@@ -3455,60 +3454,60 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="25"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="20"/>
     </row>
     <row r="20" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="29"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="24"/>
     </row>
     <row r="21" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
     </row>
     <row r="22" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="15"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3521,7 +3520,6 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:H2"/>
   </mergeCells>
-  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="91" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Diagrams/Gantt Chart.xlsx
+++ b/Diagrams/Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryannguyen/Documents/SJSU/CMPE 195E/senior-project-195e/Diagrams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryann\Documents\SJSU\Senior Project\senior-project-195e\Diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FF5E16-5D16-8240-BA67-45CBFD4695E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57405337-21E8-4478-A670-C9A0DFB1711C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="1" xr2:uid="{84B47839-57C0-EE42-AA37-BC5EA0291CB5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{84B47839-57C0-EE42-AA37-BC5EA0291CB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Group" sheetId="1" r:id="rId1"/>
@@ -1047,36 +1047,36 @@
   </sheetPr>
   <dimension ref="A1:AP31"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="3.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="3.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="3.125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="3.125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="3.125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="3.125" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="3.125" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="3.125" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="35" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="3.125" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="2.83203125" style="1"/>
+    <col min="40" max="42" width="3.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="2.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>64</v>
       </c>
@@ -1128,7 +1128,7 @@
       <c r="AO1" s="38"/>
       <c r="AP1" s="39"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>38</v>
       </c>
@@ -1194,7 +1194,7 @@
       <c r="AO2" s="40"/>
       <c r="AP2" s="41"/>
     </row>
-    <row r="3" spans="1:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>37</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>25</v>
       </c>
@@ -1409,7 +1409,7 @@
       <c r="AO4" s="36"/>
       <c r="AP4" s="37"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>23</v>
       </c>
@@ -1455,7 +1455,7 @@
       <c r="AO5" s="3"/>
       <c r="AP5" s="5"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>24</v>
       </c>
@@ -1501,7 +1501,7 @@
       <c r="AO6" s="3"/>
       <c r="AP6" s="5"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1547,7 @@
       <c r="AO7" s="3"/>
       <c r="AP7" s="5"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>1</v>
       </c>
@@ -1593,7 +1593,7 @@
       <c r="AO8" s="3"/>
       <c r="AP8" s="5"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>2</v>
       </c>
@@ -1639,7 +1639,7 @@
       <c r="AO9" s="3"/>
       <c r="AP9" s="5"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>20</v>
       </c>
@@ -1685,7 +1685,7 @@
       <c r="AO10" s="3"/>
       <c r="AP10" s="5"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>3</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="AO11" s="3"/>
       <c r="AP11" s="5"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>4</v>
       </c>
@@ -1777,7 +1777,7 @@
       <c r="AO12" s="3"/>
       <c r="AP12" s="5"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>21</v>
       </c>
@@ -1823,7 +1823,7 @@
       <c r="AO13" s="3"/>
       <c r="AP13" s="5"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>5</v>
       </c>
@@ -1869,7 +1869,7 @@
       <c r="AO14" s="3"/>
       <c r="AP14" s="5"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>6</v>
       </c>
@@ -1915,7 +1915,7 @@
       <c r="AO15" s="3"/>
       <c r="AP15" s="5"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>22</v>
       </c>
@@ -1961,7 +1961,7 @@
       <c r="AO16" s="3"/>
       <c r="AP16" s="5"/>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>41</v>
       </c>
@@ -2007,7 +2007,7 @@
       <c r="AO17" s="33"/>
       <c r="AP17" s="34"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>26</v>
       </c>
@@ -2053,7 +2053,7 @@
       <c r="AO18" s="3"/>
       <c r="AP18" s="5"/>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>28</v>
       </c>
@@ -2099,7 +2099,7 @@
       <c r="AO19" s="3"/>
       <c r="AP19" s="5"/>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>27</v>
       </c>
@@ -2145,7 +2145,7 @@
       <c r="AO20" s="3"/>
       <c r="AP20" s="5"/>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>29</v>
       </c>
@@ -2191,7 +2191,7 @@
       <c r="AO21" s="3"/>
       <c r="AP21" s="5"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>39</v>
       </c>
@@ -2237,7 +2237,7 @@
       <c r="AO22" s="33"/>
       <c r="AP22" s="34"/>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>30</v>
       </c>
@@ -2283,7 +2283,7 @@
       <c r="AO23" s="3"/>
       <c r="AP23" s="5"/>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>31</v>
       </c>
@@ -2329,7 +2329,7 @@
       <c r="AO24" s="3"/>
       <c r="AP24" s="5"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>52</v>
       </c>
@@ -2375,7 +2375,7 @@
       <c r="AO25" s="3"/>
       <c r="AP25" s="5"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>32</v>
       </c>
@@ -2421,7 +2421,7 @@
       <c r="AO26" s="3"/>
       <c r="AP26" s="5"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>33</v>
       </c>
@@ -2467,7 +2467,7 @@
       <c r="AO27" s="3"/>
       <c r="AP27" s="5"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>34</v>
       </c>
@@ -2513,7 +2513,7 @@
       <c r="AO28" s="3"/>
       <c r="AP28" s="5"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>36</v>
       </c>
@@ -2559,7 +2559,7 @@
       <c r="AO29" s="3"/>
       <c r="AP29" s="5"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>35</v>
       </c>
@@ -2605,7 +2605,7 @@
       <c r="AO30" s="3"/>
       <c r="AP30" s="5"/>
     </row>
-    <row r="31" spans="1:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>40</v>
       </c>
@@ -2672,7 +2672,7 @@
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="60" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2683,35 +2683,35 @@
   </sheetPr>
   <dimension ref="A1:AN25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="3.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="3.125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="3.125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="3.125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="3.125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="3.125" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="3.125" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="3.125" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="2.83203125" style="1"/>
+    <col min="38" max="40" width="3.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="2.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>65</v>
       </c>
@@ -2738,7 +2738,7 @@
       <c r="T1" s="38"/>
       <c r="U1" s="39"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>38</v>
       </c>
@@ -2773,7 +2773,7 @@
       <c r="T2" s="40"/>
       <c r="U2" s="41"/>
     </row>
-    <row r="3" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>37</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>43</v>
       </c>
@@ -2902,7 +2902,7 @@
       <c r="AM4"/>
       <c r="AN4"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>42</v>
       </c>
@@ -2946,7 +2946,7 @@
       <c r="AM5"/>
       <c r="AN5"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
@@ -2990,7 +2990,7 @@
       <c r="AM6"/>
       <c r="AN6"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>49</v>
       </c>
@@ -3034,7 +3034,7 @@
       <c r="AM7"/>
       <c r="AN7"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>56</v>
       </c>
@@ -3078,7 +3078,7 @@
       <c r="AM8"/>
       <c r="AN8"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>45</v>
       </c>
@@ -3122,7 +3122,7 @@
       <c r="AM9"/>
       <c r="AN9"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>53</v>
       </c>
@@ -3166,7 +3166,7 @@
       <c r="AM10"/>
       <c r="AN10"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>44</v>
       </c>
@@ -3210,7 +3210,7 @@
       <c r="AM11"/>
       <c r="AN11"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>59</v>
       </c>
@@ -3254,7 +3254,7 @@
       <c r="AM12"/>
       <c r="AN12"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>50</v>
       </c>
@@ -3298,7 +3298,7 @@
       <c r="AM13"/>
       <c r="AN13"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>55</v>
       </c>
@@ -3325,7 +3325,7 @@
       <c r="V14"/>
       <c r="W14"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>57</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="V15"/>
       <c r="W15"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>58</v>
       </c>
@@ -3379,7 +3379,7 @@
       <c r="V16"/>
       <c r="W16"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>51</v>
       </c>
@@ -3406,7 +3406,7 @@
       <c r="V17"/>
       <c r="W17"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>46</v>
       </c>
@@ -3432,7 +3432,7 @@
       <c r="U18" s="16"/>
       <c r="V18"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>47</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="T19" s="14"/>
       <c r="U19" s="20"/>
     </row>
-    <row r="20" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>54</v>
       </c>
@@ -3482,28 +3482,28 @@
       <c r="T20" s="23"/>
       <c r="U20" s="24"/>
     </row>
-    <row r="21" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21"/>
     </row>
-    <row r="22" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
         <v>60</v>
       </c>
       <c r="B22" s="43"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>63</v>
       </c>
